--- a/01-protipoinicial/Historias de usuario.xlsx
+++ b/01-protipoinicial/Historias de usuario.xlsx
@@ -703,7 +703,7 @@
       <c r="C24" s="4"/>
     </row>
     <row r="25">
-      <c r="B25" s="4"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="4"/>
     </row>
     <row r="26">
